--- a/Notes & Documentations/Dernier_Mandat.xlsx
+++ b/Notes & Documentations/Dernier_Mandat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>alll activities pour ecran styliste</t>
   </si>
@@ -63,13 +63,22 @@
   </si>
   <si>
     <t>Information bulles</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max </t>
+  </si>
+  <si>
+    <t>David</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,13 +86,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -98,8 +120,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,60 +404,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C14"/>
+  <dimension ref="A2:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -441,17 +482,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Notes & Documentations/Dernier_Mandat.xlsx
+++ b/Notes & Documentations/Dernier_Mandat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>alll activities pour ecran styliste</t>
   </si>
@@ -72,6 +72,15 @@
   </si>
   <si>
     <t>David</t>
+  </si>
+  <si>
+    <t>godard</t>
+  </si>
+  <si>
+    <t>gab</t>
+  </si>
+  <si>
+    <t>fini</t>
   </si>
 </sst>
 </file>
@@ -88,7 +97,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -103,7 +111,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -122,8 +130,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,92 +412,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H14"/>
+  <dimension ref="A2:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
       <c r="H4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
       <c r="H6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="H10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="H14" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Notes & Documentations/Dernier_Mandat.xlsx
+++ b/Notes & Documentations/Dernier_Mandat.xlsx
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Notes & Documentations/Dernier_Mandat.xlsx
+++ b/Notes & Documentations/Dernier_Mandat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>alll activities pour ecran styliste</t>
   </si>
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,6 +532,9 @@
       <c r="A11" t="s">
         <v>7</v>
       </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -552,11 +555,19 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="H13" t="s">
         <v>13</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -571,6 +582,9 @@
       <c r="H14" t="s">
         <v>16</v>
       </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Notes & Documentations/Dernier_Mandat.xlsx
+++ b/Notes & Documentations/Dernier_Mandat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual Studio 2013\Projets\Mova-2\Notes &amp; Documentations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mova-2\Notes &amp; Documentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>alll activities pour ecran styliste</t>
   </si>
@@ -414,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,6 +482,9 @@
       <c r="H7" t="s">
         <v>17</v>
       </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
